--- a/counting_save_files/CamFish_Op2_N01_20231119_people_counting_with_time.xlsx
+++ b/counting_save_files/CamFish_Op2_N01_20231119_people_counting_with_time.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1034"/>
+  <dimension ref="A1:D1036"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2952,10 +2952,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -2966,10 +2966,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -8174,10 +8174,10 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C553" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D553" t="n">
         <v>0</v>
@@ -8188,10 +8188,10 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C554" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D554" t="n">
         <v>0</v>
@@ -10862,13 +10862,13 @@
         <v>743</v>
       </c>
       <c r="B745" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C745" t="n">
         <v>2</v>
       </c>
       <c r="D745" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746">
@@ -10876,13 +10876,13 @@
         <v>744</v>
       </c>
       <c r="B746" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C746" t="n">
         <v>2</v>
       </c>
       <c r="D746" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747">
@@ -14914,6 +14914,34 @@
         <v>2</v>
       </c>
       <c r="D1034" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1036" t="n">
         <v>1</v>
       </c>
     </row>
